--- a/biology/Botanique/Stellarimaceae/Stellarimaceae.xlsx
+++ b/biology/Botanique/Stellarimaceae/Stellarimaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Stellarimaceae sont une famille d'algues de l'embranchement des Bacillariophyta (Diatomées), de la classe des Coscinodiscophyceae et de l’ordre des Stellarimales.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Stellarima, dérivé du latin stell-, étoile, et -rima, « crevasse, fissure, fente », littéralement « fente en forme d'étoile », en référence à la série de fentes (appelée « processus labial »), formant une sorte d'étoile, située au centre des valves de cette diatomée[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Stellarima, dérivé du latin stell-, étoile, et -rima, « crevasse, fissure, fente », littéralement « fente en forme d'étoile », en référence à la série de fentes (appelée « processus labial »), formant une sorte d'étoile, située au centre des valves de cette diatomée,.
 </t>
         </is>
       </c>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -569,6 +585,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -594,14 +612,16 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (25 juillet 2022)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (25 juillet 2022) :
 Azpeitiopsis P.A.Sims, 1994
 Fenestrella Greville, 1863
 Pomphodiscus J.W.Barker &amp; S.H.Meakin, 1947
 Stellarima Hasle &amp; P.A.Sims, 1986
-Selon DiatomBase (25 juillet 2022)[4]
+Selon DiatomBase (25 juillet 2022)
 Blochia J.Witkowski &amp; D.M.Harwood, 2010 †
 Nikolaevia D.M.Harwood &amp; J.Witkowski in Witkowski &amp; Harwood, 2010 †</t>
         </is>
@@ -631,13 +651,15 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Stellarimaceae V.A.Nikolaev ex P.A.Sims &amp; G.R.Hasle[3].
-Selon DiatomBase (25 juillet 2022), la famille des Stellarimaceae appartient à l'ordre des Coscinodiscales[4].
-Selon  AlgaeBase                                           (25 juillet 2022)[3] les genres Blochia et Nikolaevia appartiennent à la famille des Coscinodiscaceae.
-En 1983, Nikolaev a repris un ancien nom de genre, Symbolophora Ehrenberg, 1844 en y plaçant Symbolophora microtrias[1] comme espèce type, avec cinq autres espèces, toutes auparavant dans Coscinodiscus ; il a également créé et proposé la nouvelle famille des Symbolophoraceae.
-Cependant, le type de Symbolophora est en fait un Actinoptychus (Cymatogonia) et donc le nom de Symbolophora ne peut pas être utilisé pour ces espèces ; c'est pourquoi en 1986 Hasle &amp; Sims ont érigé le genre Stellarima[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Stellarimaceae V.A.Nikolaev ex P.A.Sims &amp; G.R.Hasle.
+Selon DiatomBase (25 juillet 2022), la famille des Stellarimaceae appartient à l'ordre des Coscinodiscales.
+Selon  AlgaeBase                                           (25 juillet 2022) les genres Blochia et Nikolaevia appartiennent à la famille des Coscinodiscaceae.
+En 1983, Nikolaev a repris un ancien nom de genre, Symbolophora Ehrenberg, 1844 en y plaçant Symbolophora microtrias comme espèce type, avec cinq autres espèces, toutes auparavant dans Coscinodiscus ; il a également créé et proposé la nouvelle famille des Symbolophoraceae.
+Cependant, le type de Symbolophora est en fait un Actinoptychus (Cymatogonia) et donc le nom de Symbolophora ne peut pas être utilisé pour ces espèces ; c'est pourquoi en 1986 Hasle &amp; Sims ont érigé le genre Stellarima.
 </t>
         </is>
       </c>
